--- a/data/trans_orig/P16A_n_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Clase-trans_orig.xlsx
@@ -729,47 +729,47 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,14</t>
+          <t>0,79; 1,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,06</t>
+          <t>0,8; 1,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,23</t>
+          <t>1,0; 1,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,09</t>
+          <t>0,81; 1,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,25</t>
+          <t>0,95; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,01</t>
+          <t>0,79; 1,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,39</t>
+          <t>1,14; 1,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,9</t>
+          <t>0,73; 0,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,13</t>
+          <t>0,89; 1,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,57 +864,57 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,73</t>
+          <t>0,53; 0,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,05</t>
+          <t>0,77; 1,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,95</t>
+          <t>0,74; 0,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,3</t>
+          <t>1,02; 1,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,03</t>
+          <t>0,8; 1,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,31</t>
+          <t>1,0; 1,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,14</t>
+          <t>0,86; 1,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,45</t>
+          <t>1,14; 1,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,84</t>
+          <t>0,69; 0,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,11</t>
+          <t>0,91; 1,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,0</t>
+          <t>0,83; 1,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,81</t>
+          <t>0,61; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,36</t>
+          <t>1,07; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,09</t>
+          <t>0,89; 1,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,56</t>
+          <t>0,35; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,46</t>
+          <t>0,95; 1,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 1,73</t>
+          <t>1,28; 1,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,96</t>
+          <t>1,37; 1,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,52</t>
+          <t>1,97; 2,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,91</t>
+          <t>0,72; 0,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,41</t>
+          <t>1,18; 1,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,25</t>
+          <t>1,02; 1,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,75</t>
+          <t>0,53; 1,76</t>
         </is>
       </c>
     </row>
@@ -1149,37 +1149,37 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,23</t>
+          <t>1,04; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,07</t>
+          <t>0,93; 1,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,51</t>
+          <t>1,3; 1,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,14</t>
+          <t>0,94; 1,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,49</t>
+          <t>1,27; 1,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,24</t>
+          <t>1,05; 1,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,98</t>
+          <t>1,49; 2,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,46</t>
+          <t>1,43; 2,35</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,92</t>
+          <t>0,63; 0,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,47 +1294,47 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,16</t>
+          <t>0,94; 1,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,48</t>
+          <t>1,19; 1,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,26</t>
+          <t>1,04; 1,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,06</t>
+          <t>1,75; 2,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 1,78</t>
+          <t>1,52; 1,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,31</t>
+          <t>1,75; 2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,09</t>
+          <t>0,91; 1,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 1,66</t>
+          <t>1,44; 1,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,45</t>
+          <t>1,28; 1,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1434,37 +1434,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,47</t>
+          <t>0,27; 0,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,67</t>
+          <t>0,3; 0,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,41</t>
+          <t>1,25; 1,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,07</t>
+          <t>1,81; 2,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 1,8</t>
+          <t>1,57; 1,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,12</t>
+          <t>1,82; 2,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,19</t>
+          <t>1,05; 1,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,51</t>
+          <t>1,31; 1,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,27 +1569,27 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,07</t>
+          <t>0,96; 1,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 0,96</t>
+          <t>0,88; 0,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,27</t>
+          <t>0,88; 1,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,19</t>
+          <t>1,09; 1,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 1,69</t>
+          <t>1,56; 1,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,3</t>
+          <t>1,72; 2,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 0,96</t>
+          <t>0,9; 0,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,2</t>
+          <t>1,12; 1,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 1,78</t>
+          <t>1,38; 1,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P16A_n_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
